--- a/Resources/IntyMusic.xlsx
+++ b/Resources/IntyMusic.xlsx
@@ -720,16 +720,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:BJ18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="25" max="25" width="5.25" customWidth="1"/>
     <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2734,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
         <v>1</v>
@@ -3028,7 +3029,7 @@
       </c>
       <c r="AP14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="3"/>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="AP18">
         <f t="shared" si="5"/>
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="5"/>
@@ -6462,9 +6463,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">

--- a/Resources/IntyMusic.xlsx
+++ b/Resources/IntyMusic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>C</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>SharpN</t>
-  </si>
-  <si>
-    <t>OctaveInty</t>
   </si>
   <si>
     <t>C5</t>
@@ -185,10 +182,64 @@
     <t>LetterOff (dontuse)</t>
   </si>
   <si>
-    <t>NoteLetter</t>
+    <t>Note (from Inty)</t>
   </si>
   <si>
-    <t>Note (from Inty)</t>
+    <t>NoteLetter (GROM)</t>
+  </si>
+  <si>
+    <t>GROM ASCII below</t>
+  </si>
+  <si>
+    <t>NoteLetter (A=0)</t>
+  </si>
+  <si>
+    <t>GRAM Card:</t>
+  </si>
+  <si>
+    <t>New note letter</t>
+  </si>
+  <si>
+    <t>GRAM for #:</t>
+  </si>
+  <si>
+    <t>GRAM Card CDEFGAB</t>
+  </si>
+  <si>
+    <t>GRAM Card for #</t>
+  </si>
+  <si>
+    <t>GRAM: Bit11:</t>
+  </si>
+  <si>
+    <t>GRAM (8*(x+46)+Bit11</t>
+  </si>
+  <si>
+    <t>OctaveInty GROM</t>
+  </si>
+  <si>
+    <t>Volume bar</t>
+  </si>
+  <si>
+    <t>0 to7=Char40 to 46</t>
+  </si>
+  <si>
+    <t>Char:</t>
+  </si>
+  <si>
+    <t>Volume bar 0 to 7</t>
+  </si>
+  <si>
+    <t>Sound bar volume</t>
+  </si>
+  <si>
+    <t>Adjusted to AY8914 PSG volume (0 to 15)</t>
+  </si>
+  <si>
+    <t>Color…</t>
+  </si>
+  <si>
+    <t>Final + Color</t>
   </si>
 </sst>
 </file>
@@ -204,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +319,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -414,6 +495,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,26 +816,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV37"/>
+  <dimension ref="A1:BV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:BJ18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="13" max="13" width="5.125" customWidth="1"/>
-    <col min="25" max="25" width="5.25" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="67" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2109,7 +2204,7 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1">
         <f>(B8*8)+(16*8)</f>
@@ -2358,953 +2453,1014 @@
       <c r="BK9" s="10"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <f>((46+B8)*8)+$E$34</f>
+        <v>2432</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:BJ10" si="3">((46+C8)*8)+$E$34</f>
+        <v>2432</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="G10" s="1">
+        <f>((46+G8)*8)+$E$34</f>
+        <v>2432</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>2432</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="3"/>
+        <v>2440</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="3"/>
+        <v>2448</v>
+      </c>
+      <c r="AL10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AN10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AO10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AP10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AU10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AW10" s="1">
+        <f t="shared" si="3"/>
+        <v>2456</v>
+      </c>
+      <c r="AX10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="AY10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="AZ10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BA10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BB10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BC10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BD10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BE10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BF10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BG10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" si="3"/>
+        <v>2464</v>
+      </c>
+      <c r="BJ10" s="1">
+        <f t="shared" si="3"/>
+        <v>2472</v>
+      </c>
       <c r="BK10" s="10"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
       <c r="BK11" s="10"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="Q12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="R12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="BA12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>2</v>
+      <c r="BB12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="BK12" s="10"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>2</v>
+      </c>
       <c r="BK13" s="10"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <f>IF(B6="#",B12+2,B12)</f>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:BJ14" si="3">IF(C6="#",C12+2,C12)</f>
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AZ14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BC14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BD14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BE14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BF14">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="BG14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="BI14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BJ14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
       <c r="BK14" s="10"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
+      <c r="A15" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <f>IF(B6="#",B13+2,B13)</f>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f t="shared" ref="C15:BJ15" si="4">IF(C6="#",C13+2,C13)</f>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>8192</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>8192</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AK15">
-        <v>8192</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AW15">
-        <v>8192</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="BI15">
-        <v>8192</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="BK15" s="10"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3328,55 +3484,55 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>8192</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3388,49 +3544,49 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>8</v>
+        <v>8192</v>
       </c>
       <c r="AL16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -3448,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3484,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="BJ16">
         <v>0</v>
@@ -3493,2529 +3649,2659 @@
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <f>(B16* 8) + 2048</f>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:BJ17" si="4">(C16* 8) + 2048</f>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="T17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="X17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="4"/>
-        <v>2112</v>
+        <v>8</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BA17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BD17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BE17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BF17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BG17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BH17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BI17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BJ17">
-        <f t="shared" si="4"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="10"/>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <f>B14*8 + 2048</f>
-        <v>2056</v>
+        <f>(B17* 8) + 2048</f>
+        <v>2048</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BJ18" si="5">C14*8 + 2048</f>
-        <v>2072</v>
+        <f t="shared" ref="C18:BJ18" si="5">(C17* 8) + 2048</f>
+        <v>2048</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="T18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="U18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="Y18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="Z18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="AA18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2048</v>
       </c>
       <c r="AB18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AE18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="AF18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="AG18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AH18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="AI18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="AK18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AL18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2112</v>
       </c>
       <c r="AM18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2112</v>
       </c>
       <c r="AN18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AO18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2112</v>
       </c>
       <c r="AP18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2112</v>
       </c>
       <c r="AR18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2048</v>
       </c>
       <c r="AS18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="AT18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="AU18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="AV18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2048</v>
       </c>
       <c r="AW18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="AX18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="AY18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2048</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="BA18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="BB18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="BC18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="BD18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="BE18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="BF18">
         <f t="shared" si="5"/>
-        <v>2072</v>
+        <v>2048</v>
       </c>
       <c r="BG18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="BH18">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>2048</v>
       </c>
       <c r="BI18">
         <f t="shared" si="5"/>
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="BJ18">
         <f t="shared" si="5"/>
-        <v>2064</v>
+        <v>2048</v>
       </c>
       <c r="BK18" s="10"/>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>35</v>
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <f>B15*8 + 2048</f>
+        <v>2056</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:BJ19" si="6">C15*8 + 2048</f>
+        <v>2072</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="6"/>
+        <v>2072</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="6"/>
+        <v>2056</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="6"/>
+        <v>2064</v>
       </c>
       <c r="BK19" s="10"/>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
       <c r="BK20" s="10"/>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" ref="B21:AG21" si="6">(CODE(B5) - 64)+32</f>
-        <v>35</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="Q21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="R21" s="11">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="S21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="T21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="U21" s="11">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="V21" s="11">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="W21" s="11">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="X21" s="11">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="Y21" s="11">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="Z21" s="11">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="AA21" s="11">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="AB21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="AC21" s="11">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="AD21" s="11">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="AE21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="AF21" s="11">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="AG21" s="11">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="AH21" s="11">
-        <f t="shared" ref="AH21:BJ21" si="7">(CODE(AH5) - 64)+32</f>
-        <v>39</v>
-      </c>
-      <c r="AI21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="AJ21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="AK21" s="11">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="AL21" s="11">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="AM21" s="11">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="AN21" s="11">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="AO21" s="11">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="AP21" s="11">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="AQ21" s="11">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="AR21" s="11">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="AS21" s="11">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="AT21" s="11">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="AU21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="AV21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="AW21" s="11">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="AX21" s="11">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="AY21" s="11">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="AZ21" s="11">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="BA21" s="11">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="BB21" s="11">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="BC21" s="11">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="BD21" s="11">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="BE21" s="11">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="BF21" s="11">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="BG21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="BH21" s="11">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="BI21" s="11">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="BJ21" s="11">
-        <f t="shared" si="7"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="BK21" s="10"/>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B21 * 8</f>
-        <v>280</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:BJ22" si="8">C21 * 8</f>
-        <v>280</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="X22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="Y22" s="1">
-        <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AA22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="AC22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="AD22" s="1">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="AF22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="AG22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="AH22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="AI22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="AJ22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="AK22" s="1">
-        <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="AL22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AM22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AN22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="AO22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="AP22" s="1">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="AQ22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="AR22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="AS22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="AT22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="AU22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="AV22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="AW22" s="1">
-        <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="AX22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AY22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="AZ22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="BA22" s="1">
-        <f t="shared" si="8"/>
-        <v>288</v>
-      </c>
-      <c r="BB22" s="1">
-        <f t="shared" si="8"/>
-        <v>296</v>
-      </c>
-      <c r="BC22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="BD22" s="1">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="BE22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="BF22" s="1">
-        <f t="shared" si="8"/>
-        <v>312</v>
-      </c>
-      <c r="BG22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="BH22" s="1">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="BI22" s="1">
-        <f t="shared" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="BJ22" s="1">
-        <f t="shared" si="8"/>
-        <v>280</v>
+        <v>54</v>
+      </c>
+      <c r="B22" s="11">
+        <f>(CODE(B5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="C22" s="11">
+        <f>(CODE(C5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="D22" s="11">
+        <f>(CODE(D5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="E22" s="11">
+        <f>(CODE(E5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="F22" s="11">
+        <f>(CODE(F5) - 64)+32</f>
+        <v>37</v>
+      </c>
+      <c r="G22" s="11">
+        <f>(CODE(G5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="H22" s="11">
+        <f>(CODE(H5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="I22" s="11">
+        <f>(CODE(I5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="J22" s="11">
+        <f>(CODE(J5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="K22" s="11">
+        <f>(CODE(K5) - 64)+32</f>
+        <v>33</v>
+      </c>
+      <c r="L22" s="11">
+        <f>(CODE(L5) - 64)+32</f>
+        <v>33</v>
+      </c>
+      <c r="M22" s="11">
+        <f>(CODE(M5) - 64)+32</f>
+        <v>34</v>
+      </c>
+      <c r="N22" s="11">
+        <f>(CODE(N5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="O22" s="11">
+        <f>(CODE(O5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="P22" s="11">
+        <f>(CODE(P5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="Q22" s="11">
+        <f>(CODE(Q5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="R22" s="11">
+        <f>(CODE(R5) - 64)+32</f>
+        <v>37</v>
+      </c>
+      <c r="S22" s="11">
+        <f>(CODE(S5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="T22" s="11">
+        <f>(CODE(T5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="U22" s="11">
+        <f>(CODE(U5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="V22" s="11">
+        <f>(CODE(V5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="W22" s="11">
+        <f>(CODE(W5) - 64)+32</f>
+        <v>33</v>
+      </c>
+      <c r="X22" s="11">
+        <f>(CODE(X5) - 64)+32</f>
+        <v>33</v>
+      </c>
+      <c r="Y22" s="11">
+        <f>(CODE(Y5) - 64)+32</f>
+        <v>34</v>
+      </c>
+      <c r="Z22" s="11">
+        <f>(CODE(Z5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="AA22" s="11">
+        <f>(CODE(AA5) - 64)+32</f>
+        <v>35</v>
+      </c>
+      <c r="AB22" s="11">
+        <f>(CODE(AB5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="AC22" s="11">
+        <f>(CODE(AC5) - 64)+32</f>
+        <v>36</v>
+      </c>
+      <c r="AD22" s="11">
+        <f>(CODE(AD5) - 64)+32</f>
+        <v>37</v>
+      </c>
+      <c r="AE22" s="11">
+        <f>(CODE(AE5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="AF22" s="11">
+        <f>(CODE(AF5) - 64)+32</f>
+        <v>38</v>
+      </c>
+      <c r="AG22" s="11">
+        <f>(CODE(AG5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="AH22" s="11">
+        <f t="shared" ref="AH22:BJ22" si="7">(CODE(AH5) - 64)+32</f>
+        <v>39</v>
+      </c>
+      <c r="AI22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AJ22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AK22" s="11">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="AL22" s="11">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AM22" s="11">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AN22" s="11">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="AO22" s="11">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="AP22" s="11">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="AQ22" s="11">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AR22" s="11">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AS22" s="11">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="AT22" s="11">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="AU22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AV22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AW22" s="11">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="AX22" s="11">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AY22" s="11">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AZ22" s="11">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BA22" s="11">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BB22" s="11">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="BC22" s="11">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="BD22" s="11">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="BE22" s="11">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="BF22" s="11">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="BG22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="BH22" s="11">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="BI22" s="11">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="BJ22" s="11">
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="BK22" s="10"/>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU23" s="1"/>
-      <c r="BV23" s="1"/>
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B22 * 8</f>
+        <v>280</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:BJ23" si="8">C22 * 8</f>
+        <v>280</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AN23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="AO23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="AP23" s="1">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="AR23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="AS23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="AT23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="AU23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="AV23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="AW23" s="1">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="AX23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AY23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="AZ23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="BA23" s="1">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="BB23" s="1">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="BC23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="BD23" s="1">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="BE23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="BF23" s="1">
+        <f t="shared" si="8"/>
+        <v>312</v>
+      </c>
+      <c r="BG23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="BH23" s="1">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="BI23" s="1">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="BJ23" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="BK23" s="10"/>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="20">
-        <v>27</v>
-      </c>
-      <c r="C24" s="24">
-        <v>25</v>
-      </c>
-      <c r="D24" s="25">
-        <v>24</v>
-      </c>
-      <c r="E24" s="26">
-        <v>26</v>
-      </c>
-      <c r="F24" s="27">
-        <v>24</v>
-      </c>
-      <c r="G24" s="18">
-        <v>27</v>
-      </c>
-      <c r="H24" s="19">
-        <v>25</v>
-      </c>
-      <c r="I24" s="20">
-        <v>24</v>
-      </c>
-      <c r="J24" s="24">
-        <v>26</v>
-      </c>
-      <c r="K24" s="25">
-        <v>24</v>
-      </c>
-      <c r="L24" s="26">
-        <v>26</v>
-      </c>
-      <c r="M24" s="27">
-        <v>24</v>
-      </c>
-      <c r="N24" s="18">
-        <v>27</v>
-      </c>
-      <c r="O24" s="19">
-        <v>25</v>
-      </c>
-      <c r="P24" s="20">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>26</v>
-      </c>
-      <c r="R24" s="22">
-        <v>24</v>
-      </c>
-      <c r="S24" s="23">
-        <v>27</v>
-      </c>
-      <c r="T24" s="24">
-        <v>25</v>
-      </c>
-      <c r="U24" s="25">
-        <v>24</v>
-      </c>
-      <c r="V24" s="26">
-        <v>26</v>
-      </c>
-      <c r="W24" s="27">
-        <v>24</v>
-      </c>
-      <c r="X24" s="18">
-        <v>26</v>
-      </c>
-      <c r="Y24" s="19">
-        <v>24</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>27</v>
-      </c>
-      <c r="AA24" s="24">
-        <v>25</v>
-      </c>
-      <c r="AB24" s="25">
-        <v>24</v>
-      </c>
-      <c r="AC24" s="26">
-        <v>26</v>
-      </c>
-      <c r="AD24" s="27">
-        <v>24</v>
-      </c>
-      <c r="AE24" s="18">
-        <v>27</v>
-      </c>
-      <c r="AF24" s="19">
-        <v>25</v>
-      </c>
-      <c r="AG24" s="20">
-        <v>24</v>
-      </c>
-      <c r="AH24" s="24">
-        <v>26</v>
-      </c>
-      <c r="AI24" s="25">
-        <v>24</v>
-      </c>
-      <c r="AJ24" s="26">
-        <v>26</v>
-      </c>
-      <c r="AK24" s="27">
-        <v>24</v>
-      </c>
-      <c r="AL24" s="18">
-        <v>27</v>
-      </c>
-      <c r="AM24" s="19">
-        <v>25</v>
-      </c>
-      <c r="AN24" s="20">
-        <v>24</v>
-      </c>
-      <c r="AO24" s="21">
-        <v>26</v>
-      </c>
-      <c r="AP24" s="22">
-        <v>24</v>
-      </c>
-      <c r="AQ24" s="23">
-        <v>27</v>
-      </c>
-      <c r="AR24" s="24">
-        <v>25</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>24</v>
-      </c>
-      <c r="AT24" s="26">
-        <v>26</v>
-      </c>
-      <c r="AU24" s="27">
-        <v>24</v>
-      </c>
-      <c r="AV24" s="18">
-        <v>26</v>
-      </c>
-      <c r="AW24" s="19">
-        <v>24</v>
-      </c>
-      <c r="AX24" s="20">
-        <v>27</v>
-      </c>
-      <c r="AY24" s="24">
-        <v>25</v>
-      </c>
-      <c r="AZ24" s="25">
-        <v>24</v>
-      </c>
-      <c r="BA24" s="26">
-        <v>26</v>
-      </c>
-      <c r="BB24" s="27">
-        <v>24</v>
-      </c>
-      <c r="BC24" s="18">
-        <v>27</v>
-      </c>
-      <c r="BD24" s="19">
-        <v>25</v>
-      </c>
-      <c r="BE24" s="20">
-        <v>24</v>
-      </c>
-      <c r="BF24" s="24">
-        <v>26</v>
-      </c>
-      <c r="BG24" s="25">
-        <v>24</v>
-      </c>
-      <c r="BH24" s="26">
-        <v>26</v>
-      </c>
-      <c r="BI24" s="27">
-        <v>24</v>
-      </c>
-      <c r="BJ24" s="18">
-        <v>27</v>
-      </c>
-      <c r="BK24" s="19">
-        <v>25</v>
-      </c>
-      <c r="BL24" s="20">
-        <v>24</v>
-      </c>
-      <c r="BM24" s="21">
-        <v>26</v>
-      </c>
-      <c r="BN24" s="22">
-        <v>24</v>
-      </c>
-      <c r="BO24" s="23">
-        <v>27</v>
-      </c>
-      <c r="BP24" s="24">
-        <v>25</v>
-      </c>
-      <c r="BQ24" s="25">
-        <v>24</v>
-      </c>
-      <c r="BR24" s="26">
-        <v>26</v>
-      </c>
-      <c r="BS24" s="27">
-        <v>24</v>
-      </c>
-      <c r="BT24" s="18">
-        <v>26</v>
-      </c>
-      <c r="BU24" s="19">
-        <v>24</v>
-      </c>
-      <c r="BV24" s="20">
-        <v>27</v>
-      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>6</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>4</v>
-      </c>
-      <c r="I25" s="1">
-        <v>6</v>
-      </c>
-      <c r="J25" s="29">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6</v>
-      </c>
-      <c r="N25" s="29">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>4</v>
-      </c>
-      <c r="T25" s="29">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>2</v>
-      </c>
-      <c r="V25" s="1">
-        <v>4</v>
-      </c>
-      <c r="W25" s="1">
-        <v>6</v>
-      </c>
-      <c r="X25" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AH25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU25" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ25">
-        <v>2</v>
-      </c>
-      <c r="BA25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BB25" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BE25" s="1">
-        <v>6</v>
-      </c>
-      <c r="BF25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="1">
-        <v>2</v>
-      </c>
-      <c r="BH25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BI25" s="1">
-        <v>6</v>
-      </c>
-      <c r="BJ25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BL25" s="1">
-        <v>6</v>
-      </c>
-      <c r="BM25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BP25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR25" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS25" s="1">
-        <v>6</v>
-      </c>
-      <c r="BT25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BU25" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV25" s="1">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="20">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="26">
+        <v>26</v>
+      </c>
+      <c r="F25" s="27">
+        <v>24</v>
+      </c>
+      <c r="G25" s="18">
+        <v>27</v>
+      </c>
+      <c r="H25" s="19">
+        <v>25</v>
+      </c>
+      <c r="I25" s="20">
+        <v>24</v>
+      </c>
+      <c r="J25" s="24">
+        <v>26</v>
+      </c>
+      <c r="K25" s="25">
+        <v>24</v>
+      </c>
+      <c r="L25" s="26">
+        <v>26</v>
+      </c>
+      <c r="M25" s="27">
+        <v>24</v>
+      </c>
+      <c r="N25" s="18">
+        <v>27</v>
+      </c>
+      <c r="O25" s="19">
+        <v>25</v>
+      </c>
+      <c r="P25" s="20">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>26</v>
+      </c>
+      <c r="R25" s="22">
+        <v>24</v>
+      </c>
+      <c r="S25" s="23">
+        <v>27</v>
+      </c>
+      <c r="T25" s="24">
+        <v>25</v>
+      </c>
+      <c r="U25" s="25">
+        <v>24</v>
+      </c>
+      <c r="V25" s="26">
+        <v>26</v>
+      </c>
+      <c r="W25" s="27">
+        <v>24</v>
+      </c>
+      <c r="X25" s="18">
+        <v>26</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="20">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="24">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="25">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="26">
+        <v>26</v>
+      </c>
+      <c r="AD25" s="27">
+        <v>24</v>
+      </c>
+      <c r="AE25" s="18">
+        <v>27</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>25</v>
+      </c>
+      <c r="AG25" s="20">
+        <v>24</v>
+      </c>
+      <c r="AH25" s="24">
+        <v>26</v>
+      </c>
+      <c r="AI25" s="25">
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="26">
+        <v>26</v>
+      </c>
+      <c r="AK25" s="27">
+        <v>24</v>
+      </c>
+      <c r="AL25" s="18">
+        <v>27</v>
+      </c>
+      <c r="AM25" s="19">
+        <v>25</v>
+      </c>
+      <c r="AN25" s="20">
+        <v>24</v>
+      </c>
+      <c r="AO25" s="21">
+        <v>26</v>
+      </c>
+      <c r="AP25" s="22">
+        <v>24</v>
+      </c>
+      <c r="AQ25" s="23">
+        <v>27</v>
+      </c>
+      <c r="AR25" s="24">
+        <v>25</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>24</v>
+      </c>
+      <c r="AT25" s="26">
+        <v>26</v>
+      </c>
+      <c r="AU25" s="27">
+        <v>24</v>
+      </c>
+      <c r="AV25" s="18">
+        <v>26</v>
+      </c>
+      <c r="AW25" s="19">
+        <v>24</v>
+      </c>
+      <c r="AX25" s="20">
+        <v>27</v>
+      </c>
+      <c r="AY25" s="24">
+        <v>25</v>
+      </c>
+      <c r="AZ25" s="25">
+        <v>24</v>
+      </c>
+      <c r="BA25" s="26">
+        <v>26</v>
+      </c>
+      <c r="BB25" s="27">
+        <v>24</v>
+      </c>
+      <c r="BC25" s="18">
+        <v>27</v>
+      </c>
+      <c r="BD25" s="19">
+        <v>25</v>
+      </c>
+      <c r="BE25" s="20">
+        <v>24</v>
+      </c>
+      <c r="BF25" s="24">
+        <v>26</v>
+      </c>
+      <c r="BG25" s="25">
+        <v>24</v>
+      </c>
+      <c r="BH25" s="26">
+        <v>26</v>
+      </c>
+      <c r="BI25" s="27">
+        <v>24</v>
+      </c>
+      <c r="BJ25" s="18">
+        <v>27</v>
+      </c>
+      <c r="BK25" s="19">
+        <v>25</v>
+      </c>
+      <c r="BL25" s="20">
+        <v>24</v>
+      </c>
+      <c r="BM25" s="21">
+        <v>26</v>
+      </c>
+      <c r="BN25" s="22">
+        <v>24</v>
+      </c>
+      <c r="BO25" s="23">
+        <v>27</v>
+      </c>
+      <c r="BP25" s="24">
+        <v>25</v>
+      </c>
+      <c r="BQ25" s="25">
+        <v>24</v>
+      </c>
+      <c r="BR25" s="26">
+        <v>26</v>
+      </c>
+      <c r="BS25" s="27">
+        <v>24</v>
+      </c>
+      <c r="BT25" s="18">
+        <v>26</v>
+      </c>
+      <c r="BU25" s="19">
+        <v>24</v>
+      </c>
+      <c r="BV25" s="20">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="29">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J26" s="29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N26" s="29">
-        <f>J26+8</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" ref="O26:P26" si="9">K26+8</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="29">
-        <f>N26+8</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" ref="R26:S26" si="10">O26+8</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="T26" s="29">
-        <f>Q26+8</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ref="U26:V26" si="11">R26+8</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="W26" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="X26" s="29">
-        <f>T26+8</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26:Z26" si="12">U26+8</f>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="AA26" s="29">
-        <f>X26+8</f>
-        <v>56</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" ref="AB26:AC26" si="13">Y26+8</f>
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="13"/>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="AD26" s="1">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="AE26" s="29">
-        <f>AA26+8</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" ref="AF26:AG26" si="14">AB26+8</f>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="14"/>
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="AH26" s="29">
-        <f>AE26+8</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" ref="AI26:AJ26" si="15">AF26+8</f>
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="15"/>
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="1">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="AL26" s="29">
-        <f>AH26+8</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" ref="AM26:AN26" si="16">AI26+8</f>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="16"/>
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="29">
-        <f>AL26+8</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" ref="AP26:AQ26" si="17">AM26+8</f>
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="17"/>
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="AR26" s="29">
-        <f>AO26+8</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" ref="AS26:AT26" si="18">AP26+8</f>
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="1">
-        <f t="shared" si="18"/>
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="AU26" s="1">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="AV26" s="29">
-        <f>AR26+8</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" ref="AW26:AX26" si="19">AS26+8</f>
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="1">
-        <f t="shared" si="19"/>
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="AY26" s="29">
-        <f>AV26+8</f>
-        <v>112</v>
-      </c>
-      <c r="AZ26" s="1">
-        <f t="shared" ref="AZ26:BA26" si="20">AW26+8</f>
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>2</v>
       </c>
       <c r="BA26" s="1">
-        <f t="shared" si="20"/>
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="BB26" s="1">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="BC26" s="29">
-        <f>AY26+8</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <f t="shared" ref="BD26:BE26" si="21">AZ26+8</f>
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BE26" s="1">
-        <f t="shared" si="21"/>
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="BF26" s="29">
-        <f>BE26+8</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="1">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="BH26" s="1">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="BI26" s="1">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="BJ26" s="29">
-        <f>BI26+8</f>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="BK26" s="1">
-        <f t="shared" ref="BK26:BL26" si="22">BG26+8</f>
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="BL26" s="1">
-        <f t="shared" si="22"/>
-        <v>136</v>
-      </c>
-      <c r="BM26" s="10">
-        <f>BJ26+8</f>
-        <v>144</v>
-      </c>
-      <c r="BN26">
-        <f t="shared" ref="BN26:BO26" si="23">BK26+8</f>
-        <v>144</v>
-      </c>
-      <c r="BO26">
-        <f t="shared" si="23"/>
-        <v>144</v>
-      </c>
-      <c r="BP26" s="10">
-        <f>+BM26+8</f>
-        <v>152</v>
-      </c>
-      <c r="BQ26">
-        <f t="shared" ref="BQ26:BR26" si="24">+BN26+8</f>
-        <v>152</v>
-      </c>
-      <c r="BR26">
-        <f t="shared" si="24"/>
-        <v>152</v>
-      </c>
-      <c r="BS26">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="BM26" s="29">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP26" s="29">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT26" s="29">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
-        <f>B25+B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="29">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1">
+        <v>16</v>
+      </c>
+      <c r="L27" s="1">
+        <v>16</v>
+      </c>
+      <c r="M27" s="1">
+        <v>16</v>
+      </c>
+      <c r="N27" s="29">
+        <f>J27+8</f>
+        <v>24</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:P27" si="9">K27+8</f>
+        <v>24</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="Q27" s="29">
+        <f>N27+8</f>
+        <v>32</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" ref="R27:S27" si="10">O27+8</f>
+        <v>32</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="T27" s="29">
+        <f>Q27+8</f>
+        <v>40</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" ref="U27:V27" si="11">R27+8</f>
+        <v>40</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="W27" s="1">
+        <v>40</v>
+      </c>
+      <c r="X27" s="29">
+        <f>T27+8</f>
+        <v>48</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" ref="Y27:Z27" si="12">U27+8</f>
+        <v>48</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="AA27" s="29">
+        <f>X27+8</f>
+        <v>56</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" ref="AB27:AC27" si="13">Y27+8</f>
+        <v>56</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>56</v>
+      </c>
+      <c r="AE27" s="29">
+        <f>AA27+8</f>
+        <v>64</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" ref="AF27:AG27" si="14">AB27+8</f>
+        <v>64</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="AH27" s="29">
+        <f>AE27+8</f>
+        <v>72</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" ref="AI27:AJ27" si="15">AF27+8</f>
+        <v>72</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL27" s="29">
+        <f>AH27+8</f>
+        <v>80</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" ref="AM27:AN27" si="16">AI27+8</f>
+        <v>80</v>
+      </c>
+      <c r="AN27" s="1">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="AO27" s="29">
+        <f>AL27+8</f>
+        <v>88</v>
+      </c>
+      <c r="AP27" s="1">
+        <f t="shared" ref="AP27:AQ27" si="17">AM27+8</f>
+        <v>88</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="AR27" s="29">
+        <f>AO27+8</f>
+        <v>96</v>
+      </c>
+      <c r="AS27" s="1">
+        <f t="shared" ref="AS27:AT27" si="18">AP27+8</f>
+        <v>96</v>
+      </c>
+      <c r="AT27" s="1">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>96</v>
+      </c>
+      <c r="AV27" s="29">
+        <f>AR27+8</f>
+        <v>104</v>
+      </c>
+      <c r="AW27" s="1">
+        <f t="shared" ref="AW27:AX27" si="19">AS27+8</f>
+        <v>104</v>
+      </c>
+      <c r="AX27" s="1">
+        <f t="shared" si="19"/>
+        <v>104</v>
+      </c>
+      <c r="AY27" s="29">
+        <f>AV27+8</f>
+        <v>112</v>
+      </c>
+      <c r="AZ27" s="1">
+        <f t="shared" ref="AZ27:BA27" si="20">AW27+8</f>
+        <v>112</v>
+      </c>
+      <c r="BA27" s="1">
+        <f t="shared" si="20"/>
+        <v>112</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>112</v>
+      </c>
+      <c r="BC27" s="29">
+        <f>AY27+8</f>
+        <v>120</v>
+      </c>
+      <c r="BD27" s="1">
+        <f t="shared" ref="BD27:BE27" si="21">AZ27+8</f>
+        <v>120</v>
+      </c>
+      <c r="BE27" s="1">
+        <f t="shared" si="21"/>
+        <v>120</v>
+      </c>
+      <c r="BF27" s="29">
+        <f>BE27+8</f>
+        <v>128</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>128</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>128</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>128</v>
+      </c>
+      <c r="BJ27" s="29">
+        <f>BI27+8</f>
+        <v>136</v>
+      </c>
+      <c r="BK27" s="1">
+        <f t="shared" ref="BK27:BL27" si="22">BG27+8</f>
+        <v>136</v>
+      </c>
+      <c r="BL27" s="1">
+        <f t="shared" si="22"/>
+        <v>136</v>
+      </c>
+      <c r="BM27" s="10">
+        <f>BJ27+8</f>
+        <v>144</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" ref="BN27:BO27" si="23">BK27+8</f>
+        <v>144</v>
+      </c>
+      <c r="BO27">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="BP27" s="10">
+        <f>+BM27+8</f>
+        <v>152</v>
+      </c>
+      <c r="BQ27">
+        <f t="shared" ref="BQ27:BR27" si="24">+BN27+8</f>
+        <v>152</v>
+      </c>
+      <c r="BR27">
+        <f t="shared" si="24"/>
+        <v>152</v>
+      </c>
+      <c r="BS27">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B26+B27</f>
         <v>4</v>
       </c>
-      <c r="C27" s="1">
-        <f>C25+C26</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ref="D27:BO27" si="25">D25+D26</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C28" s="1">
+        <f>C26+C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:BO28" si="25">D26+D27</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28" s="1">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="25"/>
         <v>24</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="1">
         <f t="shared" si="25"/>
         <v>28</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P28" s="1">
         <f t="shared" si="25"/>
         <v>30</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q28" s="1">
         <f t="shared" si="25"/>
         <v>32</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R28" s="1">
         <f t="shared" si="25"/>
         <v>34</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S28" s="1">
         <f t="shared" si="25"/>
         <v>36</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T28" s="1">
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U28" s="1">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V28" s="1">
         <f t="shared" si="25"/>
         <v>44</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W28" s="1">
         <f t="shared" si="25"/>
         <v>46</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X28" s="1">
         <f t="shared" si="25"/>
         <v>48</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y28" s="1">
         <f t="shared" si="25"/>
         <v>50</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z28" s="1">
         <f t="shared" si="25"/>
         <v>52</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA28" s="1">
         <f t="shared" si="25"/>
         <v>56</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB28" s="1">
         <f t="shared" si="25"/>
         <v>58</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC28" s="1">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD28" s="1">
         <f t="shared" si="25"/>
         <v>62</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AE28" s="1">
         <f t="shared" si="25"/>
         <v>64</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF28" s="1">
         <f t="shared" si="25"/>
         <v>68</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AG28" s="1">
         <f t="shared" si="25"/>
         <v>70</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AH28" s="1">
         <f t="shared" si="25"/>
         <v>72</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI28" s="1">
         <f t="shared" si="25"/>
         <v>74</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ28" s="1">
         <f t="shared" si="25"/>
         <v>76</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AK28" s="1">
         <f t="shared" si="25"/>
         <v>78</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AL28" s="1">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AM28" s="1">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AN28" s="1">
         <f t="shared" si="25"/>
         <v>86</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AO28" s="1">
         <f t="shared" si="25"/>
         <v>88</v>
       </c>
-      <c r="AP27" s="1">
+      <c r="AP28" s="1">
         <f t="shared" si="25"/>
         <v>90</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AQ28" s="1">
         <f t="shared" si="25"/>
         <v>92</v>
       </c>
-      <c r="AR27" s="1">
+      <c r="AR28" s="1">
         <f t="shared" si="25"/>
         <v>96</v>
       </c>
-      <c r="AS27" s="1">
+      <c r="AS28" s="1">
         <f t="shared" si="25"/>
         <v>98</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AT28" s="1">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AU28" s="1">
         <f t="shared" si="25"/>
         <v>102</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AV28" s="1">
         <f t="shared" si="25"/>
         <v>104</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AW28" s="1">
         <f t="shared" si="25"/>
         <v>106</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AX28" s="1">
         <f t="shared" si="25"/>
         <v>108</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="AY28" s="1">
         <f t="shared" si="25"/>
         <v>112</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="AZ28" s="1">
         <f t="shared" si="25"/>
         <v>114</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BA28" s="1">
         <f t="shared" si="25"/>
         <v>116</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BB28" s="1">
         <f t="shared" si="25"/>
         <v>118</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BC28" s="1">
         <f t="shared" si="25"/>
         <v>120</v>
       </c>
-      <c r="BD27" s="1">
+      <c r="BD28" s="1">
         <f t="shared" si="25"/>
         <v>124</v>
       </c>
-      <c r="BE27" s="1">
+      <c r="BE28" s="1">
         <f t="shared" si="25"/>
         <v>126</v>
       </c>
-      <c r="BF27" s="1">
+      <c r="BF28" s="1">
         <f t="shared" si="25"/>
         <v>128</v>
       </c>
-      <c r="BG27" s="1">
+      <c r="BG28" s="1">
         <f t="shared" si="25"/>
         <v>130</v>
       </c>
-      <c r="BH27" s="1">
+      <c r="BH28" s="1">
         <f t="shared" si="25"/>
         <v>132</v>
       </c>
-      <c r="BI27" s="1">
+      <c r="BI28" s="1">
         <f t="shared" si="25"/>
         <v>134</v>
       </c>
-      <c r="BJ27" s="1">
+      <c r="BJ28" s="1">
         <f t="shared" si="25"/>
         <v>136</v>
       </c>
-      <c r="BK27" s="1">
+      <c r="BK28" s="1">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="BL27" s="1">
+      <c r="BL28" s="1">
         <f t="shared" si="25"/>
         <v>142</v>
       </c>
-      <c r="BM27" s="1">
+      <c r="BM28" s="1">
         <f t="shared" si="25"/>
         <v>144</v>
       </c>
-      <c r="BN27" s="1">
+      <c r="BN28" s="1">
         <f t="shared" si="25"/>
         <v>146</v>
       </c>
-      <c r="BO27" s="1">
+      <c r="BO28" s="1">
         <f t="shared" si="25"/>
         <v>148</v>
       </c>
-      <c r="BP27" s="1">
-        <f t="shared" ref="BP27:BR27" si="26">BP25+BP26</f>
+      <c r="BP28" s="1">
+        <f t="shared" ref="BP28:BR28" si="26">BP26+BP27</f>
         <v>152</v>
       </c>
-      <c r="BQ27" s="1">
+      <c r="BQ28" s="1">
         <f t="shared" si="26"/>
         <v>154</v>
       </c>
-      <c r="BR27" s="1">
+      <c r="BR28" s="1">
         <f t="shared" si="26"/>
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BK28" s="10"/>
-    </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1">
-        <f>(B24*8)+2048</f>
-        <v>2264</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" ref="C29:BN29" si="27">(C24*8)+2048</f>
-        <v>2248</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="V29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="W29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="X29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="Y29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="Z29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="AA29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="AB29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="AF29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="AG29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AH29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AI29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AJ29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AK29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AL29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="AM29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="AN29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AO29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AP29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AQ29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="AR29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="AS29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AT29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AU29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AV29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="AW29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="AX29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="AY29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="AZ29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BA29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="BB29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BC29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="BD29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="BE29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BF29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="BG29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BH29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="BI29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BJ29" s="1">
-        <f t="shared" si="27"/>
-        <v>2264</v>
-      </c>
-      <c r="BK29" s="1">
-        <f t="shared" si="27"/>
-        <v>2248</v>
-      </c>
-      <c r="BL29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BM29" s="1">
-        <f t="shared" si="27"/>
-        <v>2256</v>
-      </c>
-      <c r="BN29" s="1">
-        <f t="shared" si="27"/>
-        <v>2240</v>
-      </c>
-      <c r="BO29" s="1">
-        <f t="shared" ref="BO29" si="28">(BO24*8)+2048</f>
-        <v>2264</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BK29" s="10"/>
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B30" s="1">
+        <f>(B25*8)+2048</f>
+        <v>2264</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:BN30" si="27">(C25*8)+2048</f>
+        <v>2248</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="AN30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AO30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AP30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AQ30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="AR30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="AS30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AT30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AU30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AV30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="AW30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="AX30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="AY30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="AZ30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BA30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="BB30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BC30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="BD30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="BE30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BF30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="BG30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BH30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="BI30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BJ30" s="1">
+        <f t="shared" si="27"/>
+        <v>2264</v>
+      </c>
+      <c r="BK30" s="1">
+        <f t="shared" si="27"/>
+        <v>2248</v>
+      </c>
+      <c r="BL30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BM30" s="1">
+        <f t="shared" si="27"/>
+        <v>2256</v>
+      </c>
+      <c r="BN30" s="1">
+        <f t="shared" si="27"/>
+        <v>2240</v>
+      </c>
+      <c r="BO30" s="1">
+        <f t="shared" ref="BO30" si="28">(BO25*8)+2048</f>
+        <v>2264</v>
+      </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6078,140 +6364,531 @@
       <c r="BI31" s="1"/>
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
+      <c r="A32" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="29" t="str">
+        <f>B5</f>
+        <v>C</v>
+      </c>
+      <c r="C32" s="29" t="str">
+        <f>C5</f>
+        <v>C</v>
+      </c>
+      <c r="D32" s="29" t="str">
+        <f>D5</f>
+        <v>D</v>
+      </c>
+      <c r="E32" s="29" t="str">
+        <f>E5</f>
+        <v>D</v>
+      </c>
+      <c r="F32" s="29" t="str">
+        <f>F5</f>
+        <v>E</v>
+      </c>
+      <c r="G32" s="29" t="str">
+        <f>G5</f>
+        <v>F</v>
+      </c>
+      <c r="H32" s="29" t="str">
+        <f>H5</f>
+        <v>F</v>
+      </c>
+      <c r="I32" s="29" t="str">
+        <f>I5</f>
+        <v>G</v>
+      </c>
+      <c r="J32" s="29" t="str">
+        <f>J5</f>
+        <v>G</v>
+      </c>
+      <c r="K32" s="29" t="str">
+        <f>K5</f>
+        <v>A</v>
+      </c>
+      <c r="L32" s="29" t="str">
+        <f>L5</f>
+        <v>A</v>
+      </c>
+      <c r="M32" s="29" t="str">
+        <f>M5</f>
+        <v>B</v>
+      </c>
+      <c r="N32" s="29" t="str">
+        <f>N5</f>
+        <v>C</v>
+      </c>
+      <c r="O32" s="29" t="str">
+        <f>O5</f>
+        <v>C</v>
+      </c>
+      <c r="P32" s="29" t="str">
+        <f>P5</f>
+        <v>D</v>
+      </c>
+      <c r="Q32" s="29" t="str">
+        <f>Q5</f>
+        <v>D</v>
+      </c>
+      <c r="R32" s="29" t="str">
+        <f>R5</f>
+        <v>E</v>
+      </c>
+      <c r="S32" s="29" t="str">
+        <f>S5</f>
+        <v>F</v>
+      </c>
+      <c r="T32" s="29" t="str">
+        <f>T5</f>
+        <v>F</v>
+      </c>
+      <c r="U32" s="29" t="str">
+        <f>U5</f>
+        <v>G</v>
+      </c>
+      <c r="V32" s="29" t="str">
+        <f>V5</f>
+        <v>G</v>
+      </c>
+      <c r="W32" s="29" t="str">
+        <f>W5</f>
+        <v>A</v>
+      </c>
+      <c r="X32" s="29" t="str">
+        <f>X5</f>
+        <v>A</v>
+      </c>
+      <c r="Y32" s="29" t="str">
+        <f>Y5</f>
+        <v>B</v>
+      </c>
+      <c r="Z32" s="29" t="str">
+        <f>Z5</f>
+        <v>C</v>
+      </c>
+      <c r="AA32" s="29" t="str">
+        <f>AA5</f>
+        <v>C</v>
+      </c>
+      <c r="AB32" s="29" t="str">
+        <f>AB5</f>
+        <v>D</v>
+      </c>
+      <c r="AC32" s="29" t="str">
+        <f>AC5</f>
+        <v>D</v>
+      </c>
+      <c r="AD32" s="29" t="str">
+        <f>AD5</f>
+        <v>E</v>
+      </c>
+      <c r="AE32" s="29" t="str">
+        <f>AE5</f>
+        <v>F</v>
+      </c>
+      <c r="AF32" s="29" t="str">
+        <f>AF5</f>
+        <v>F</v>
+      </c>
+      <c r="AG32" s="29" t="str">
+        <f>AG5</f>
+        <v>G</v>
+      </c>
+      <c r="AH32" s="29" t="str">
+        <f>AH5</f>
+        <v>G</v>
+      </c>
+      <c r="AI32" s="29" t="str">
+        <f>AI5</f>
+        <v>A</v>
+      </c>
+      <c r="AJ32" s="29" t="str">
+        <f>AJ5</f>
+        <v>A</v>
+      </c>
+      <c r="AK32" s="29" t="str">
+        <f>AK5</f>
+        <v>B</v>
+      </c>
+      <c r="AL32" s="29" t="str">
+        <f>AL5</f>
+        <v>C</v>
+      </c>
+      <c r="AM32" s="29" t="str">
+        <f>AM5</f>
+        <v>C</v>
+      </c>
+      <c r="AN32" s="29" t="str">
+        <f>AN5</f>
+        <v>D</v>
+      </c>
+      <c r="AO32" s="29" t="str">
+        <f>AO5</f>
+        <v>D</v>
+      </c>
+      <c r="AP32" s="29" t="str">
+        <f>AP5</f>
+        <v>E</v>
+      </c>
+      <c r="AQ32" s="29" t="str">
+        <f>AQ5</f>
+        <v>F</v>
+      </c>
+      <c r="AR32" s="29" t="str">
+        <f>AR5</f>
+        <v>F</v>
+      </c>
+      <c r="AS32" s="29" t="str">
+        <f>AS5</f>
+        <v>G</v>
+      </c>
+      <c r="AT32" s="29" t="str">
+        <f>AT5</f>
+        <v>G</v>
+      </c>
+      <c r="AU32" s="29" t="str">
+        <f>AU5</f>
+        <v>A</v>
+      </c>
+      <c r="AV32" s="29" t="str">
+        <f>AV5</f>
+        <v>A</v>
+      </c>
+      <c r="AW32" s="29" t="str">
+        <f>AW5</f>
+        <v>B</v>
+      </c>
+      <c r="AX32" s="29" t="str">
+        <f>AX5</f>
+        <v>C</v>
+      </c>
+      <c r="AY32" s="29" t="str">
+        <f>AY5</f>
+        <v>C</v>
+      </c>
+      <c r="AZ32" s="29" t="str">
+        <f>AZ5</f>
+        <v>D</v>
+      </c>
+      <c r="BA32" s="29" t="str">
+        <f>BA5</f>
+        <v>D</v>
+      </c>
+      <c r="BB32" s="29" t="str">
+        <f>BB5</f>
+        <v>E</v>
+      </c>
+      <c r="BC32" s="29" t="str">
+        <f>BC5</f>
+        <v>F</v>
+      </c>
+      <c r="BD32" s="29" t="str">
+        <f>BD5</f>
+        <v>F</v>
+      </c>
+      <c r="BE32" s="29" t="str">
+        <f>BE5</f>
+        <v>G</v>
+      </c>
+      <c r="BF32" s="29" t="str">
+        <f>BF5</f>
+        <v>G</v>
+      </c>
+      <c r="BG32" s="29" t="str">
+        <f>BG5</f>
+        <v>A</v>
+      </c>
+      <c r="BH32" s="29" t="str">
+        <f>BH5</f>
+        <v>A</v>
+      </c>
+      <c r="BI32" s="29" t="str">
+        <f>BI5</f>
+        <v>B</v>
+      </c>
+      <c r="BJ32" s="29" t="str">
+        <f>BJ5</f>
+        <v>C</v>
+      </c>
+      <c r="BK32" s="1"/>
     </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
-      <c r="BC33" s="1"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="30">
+        <f>(CODE(B32)-CODE("A"))</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="30">
+        <f t="shared" ref="C33:BJ33" si="29">(CODE(C32)-CODE("A"))</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="30">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="J33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="O33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="Q33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="R33" s="30">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="S33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="T33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="U33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="V33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="W33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AA33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AB33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AC33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AD33" s="30">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AE33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AF33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AG33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="AH33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="AI33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AL33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AM33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AN33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AO33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AP33" s="30">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AQ33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AR33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AS33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="AT33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="AU33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AX33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AY33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BA33" s="30">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BB33" s="30">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="BC33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="BD33" s="30">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="BE33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="BF33" s="30">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="BG33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BH33" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BI33" s="30">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="30">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="1">
+        <f>2^11</f>
+        <v>2048</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="H34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="1">
+        <f>39</f>
+        <v>39</v>
+      </c>
+      <c r="K34" s="30"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -6263,131 +6940,505 @@
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
     </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1">
+        <f>((B33+$B$34)*8)+$E$34</f>
+        <v>2320</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35:BJ35" si="30">((C33+$B$34)*8)+$E$34</f>
+        <v>2320</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="30"/>
+        <v>2336</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="30"/>
+        <v>2312</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="30"/>
+        <v>2336</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="30"/>
+        <v>2312</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="30"/>
+        <v>2336</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="30"/>
+        <v>2312</v>
+      </c>
+      <c r="AL35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AN35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="AO35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="AP35" s="1">
+        <f t="shared" si="30"/>
+        <v>2336</v>
+      </c>
+      <c r="AQ35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="AR35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="AS35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="AT35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="AU35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="AV35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="AW35" s="1">
+        <f t="shared" si="30"/>
+        <v>2312</v>
+      </c>
+      <c r="AX35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AY35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
+      <c r="AZ35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="BA35" s="1">
+        <f t="shared" si="30"/>
+        <v>2328</v>
+      </c>
+      <c r="BB35" s="1">
+        <f t="shared" si="30"/>
+        <v>2336</v>
+      </c>
+      <c r="BC35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="BD35" s="1">
+        <f t="shared" si="30"/>
+        <v>2344</v>
+      </c>
+      <c r="BE35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="BF35" s="1">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
+      <c r="BG35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="BH35" s="1">
+        <f t="shared" si="30"/>
+        <v>2304</v>
+      </c>
+      <c r="BI35" s="1">
+        <f t="shared" si="30"/>
+        <v>2312</v>
+      </c>
+      <c r="BJ35" s="1">
+        <f t="shared" si="30"/>
+        <v>2320</v>
+      </c>
     </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1">
+        <f>IF(B6="#",$E$34+($J$34 * 8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:BJ36" si="31">IF(C6="#",$E$34+($J$34 * 8),0)</f>
+        <v>2360</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AN36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AP36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AS36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AU36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AW36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="AZ36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="BB36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="BE36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="BG36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BH36" s="1">
+        <f t="shared" si="31"/>
+        <v>2360</v>
+      </c>
+      <c r="BI36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6449,6 +7500,403 @@
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
     </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1">
+        <v>40</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <f>($C$38+B39)*8+$E$34</f>
+        <v>2368</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="32">($C$38+C39)*8+$E$34</f>
+        <v>2376</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="32"/>
+        <v>2384</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="32"/>
+        <v>2392</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="32"/>
+        <v>2400</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="32"/>
+        <v>2408</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="32"/>
+        <v>2416</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="32"/>
+        <v>2424</v>
+      </c>
+      <c r="K40">
+        <f>($C$38+K39)*8+$E$34</f>
+        <v>2368</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:Z40" si="33">($C$38+L39)*8+$E$34</f>
+        <v>2368</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="33"/>
+        <v>2368</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="33"/>
+        <v>2376</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="33"/>
+        <v>2376</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="33"/>
+        <v>2376</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="33"/>
+        <v>2384</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="33"/>
+        <v>2384</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="33"/>
+        <v>2384</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="33"/>
+        <v>2392</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="33"/>
+        <v>2392</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="33"/>
+        <v>2392</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="33"/>
+        <v>2400</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="33"/>
+        <v>2400</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="33"/>
+        <v>2400</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="33"/>
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4101</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>4103</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>4098</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>4101</v>
+      </c>
+      <c r="Q41">
+        <v>4096</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>4102</v>
+      </c>
+      <c r="U41">
+        <v>4103</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>4100</v>
+      </c>
+      <c r="Y41">
+        <v>4098</v>
+      </c>
+      <c r="Z41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42">
+        <f>K40+K41</f>
+        <v>2368</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:Z42" si="34">L40+L41</f>
+        <v>2368</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="34"/>
+        <v>2368</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="34"/>
+        <v>2377</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="34"/>
+        <v>2377</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="34"/>
+        <v>6477</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="34"/>
+        <v>6480</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="34"/>
+        <v>2388</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="34"/>
+        <v>2389</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="34"/>
+        <v>6494</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="34"/>
+        <v>6495</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="34"/>
+        <v>2394</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="34"/>
+        <v>2402</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="34"/>
+        <v>6500</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="34"/>
+        <v>6498</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="34"/>
+        <v>2414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6572,58 +8020,58 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -6773,7 +8221,7 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
@@ -6878,7 +8326,7 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6919,7 +8367,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <f>(B4* 8) + 2048</f>
@@ -6996,7 +8444,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>2048</v>
@@ -7005,67 +8453,67 @@
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="Q12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="V12" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="W12" s="16"/>
     </row>
@@ -7133,7 +8581,7 @@
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8">
         <v>31</v>
@@ -7201,7 +8649,7 @@
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <f>(B14*8)+$B$10</f>
@@ -7290,7 +8738,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>27</v>
